--- a/mosip_master/xlsx/machine_master.xlsx
+++ b/mosip_master/xlsx/machine_master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28264E03-3916-42EB-B6FC-CD5F525261FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3C6E2-EA3F-48CA-97D8-DDC567EAC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,13 +120,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,7 +273,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="N1" sqref="N1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -325,28 +341,28 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/mosip_master/xlsx/machine_master.xlsx
+++ b/mosip_master/xlsx/machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3C6E2-EA3F-48CA-97D8-DDC567EAC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7972FE5-028A-4BD1-9F2B-3AA4B3BC4EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>2024-09-10 10:51:08.405</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>Techno-352</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>10.8.9.9</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tesy</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
   </si>
 </sst>
 </file>
@@ -272,13 +299,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" customWidth="1"/>
@@ -367,8 +394,49 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>10001</v>
+      </c>
+      <c r="M2">
+        <v>10001</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>

--- a/mosip_master/xlsx/machine_master.xlsx
+++ b/mosip_master/xlsx/machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7972FE5-028A-4BD1-9F2B-3AA4B3BC4EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C508D-E632-4938-8964-D06CBC2082A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>globaladmin</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>07-02-2031</t>
+  </si>
+  <si>
+    <t>Rural_munsipal</t>
   </si>
 </sst>
 </file>
@@ -299,8 +311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -409,7 +421,12 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
@@ -437,9 +454,18 @@
       <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>

--- a/mosip_master/xlsx/machine_master.xlsx
+++ b/mosip_master/xlsx/machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C508D-E632-4938-8964-D06CBC2082A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182F3A6-6FBF-42F9-850E-70FBCFC016F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>del_dtimes</t>
-  </si>
-  <si>
-    <t>2024-09-10 10:51:08.405</t>
   </si>
   <si>
     <t>eng</t>
@@ -178,10 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,8 +309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -341,43 +339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -406,66 +404,67 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>12345</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L2">
-        <v>10001</v>
-      </c>
-      <c r="M2">
-        <v>10001</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
@@ -704,9 +703,7 @@
       <c r="Q36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/mosip_master/xlsx/machine_master.xlsx
+++ b/mosip_master/xlsx/machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182F3A6-6FBF-42F9-850E-70FBCFC016F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF185ABB-57F8-464F-9D39-A7BB5DDFDBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="e14504259a7308f8158e86223babc52" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -126,18 +121,25 @@
     <t>07-02-2031</t>
   </si>
   <si>
-    <t>Rural_munsipal</t>
+    <t>RESIDENT-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,17 +174,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F41087A0-8E92-4416-BCCB-025A933EDDA8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,8 +314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="A1:U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -403,7 +408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -422,7 +427,7 @@
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
